--- a/dataset/Grab/datasetgrab6.xlsx
+++ b/dataset/Grab/datasetgrab6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\dataset\Grab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4863A58F-7612-4602-AB8A-9513D369FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FC9F7-2AA5-4357-8B0A-24B71AEE558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>created_at</t>
   </si>
@@ -31,38 +31,12 @@
     <t>text</t>
   </si>
   <si>
-    <t>mahdadaluasw</t>
-  </si>
-  <si>
-    <t>RT @GrabID: 10 TAHUN GRAB BERSAMA INDONESIA, AKU MAU BAGIIN 1 IPHONE 13 MINI &amp;amp; GRABGIFTS TOTAL 2JUTA!
-Caranya:
--RT &amp;amp; like tweet ini
--Reply…</t>
-  </si>
-  <si>
-    <t>duabanjaa</t>
-  </si>
-  <si>
-    <t>RT @frdauzakaria: 📍Light Capture Cafe
-Kalau turun dekat MRT Pasar Seni, boleh jalan kaki ke sini or naik grab kalau nak cepat. Interior di…</t>
-  </si>
-  <si>
     <t>ELSA_CT22</t>
   </si>
   <si>
     <t>RT @CT_Voter: Alhamdulillah, berkat kesabaran. My wait was worth it. At last managed to grab Siti Nurhaliza concert’s ticket. Terima kasih…</t>
   </si>
   <si>
-    <t>grab_medan</t>
-  </si>
-  <si>
-    <t>TERIMA KASIH BANYAK ATAS SEMUA NYA 
-KDI ( KONTES DANGDUT INDONESIA )
-OM ADI
-ACADEMY DANGDUT INDOSIAR 
-AYAH ERWIN… https://t.co/mpB0io1k71</t>
-  </si>
-  <si>
     <t>GrabID</t>
   </si>
   <si>
@@ -75,9 +49,6 @@
     <t>RT @danialtsu: Harini, @ShopeeMY ada voucher best utk korang jimat bayar bil telco tau! Best giler weih bila tengok bil alwaysssss negative…</t>
   </si>
   <si>
-    <t>musicmoon_</t>
-  </si>
-  <si>
     <t>aqil4h__</t>
   </si>
   <si>
@@ -94,30 +65,6 @@
   </si>
   <si>
     <t>gemoy nan gemoy, grab 4k/each aja https://t.co/YVWoc6y2R7 https://t.co/kvy94DpruZ</t>
-  </si>
-  <si>
-    <t>shiespiss</t>
-  </si>
-  <si>
-    <t>waifyousimp</t>
-  </si>
-  <si>
-    <t>RT @waifyousimp: [ OPEN PRE ORDER ] 
-halooo! aku open PO brownies
-25 pcs : 65.000
-18pcs : 45.000
-bisa kirim jabodetabek pake grab dan ke l…</t>
-  </si>
-  <si>
-    <t>zharfanamr</t>
-  </si>
-  <si>
-    <t>_LeeTahu</t>
-  </si>
-  <si>
-    <t>WTS Skin Care Nacific Acne Cica Plus Clear Toner Serum Cream Set Preloved
-baru dipakai ⅓
-dijual karena mau ganti m… https://t.co/zynkgHoxS6</t>
   </si>
   <si>
     <t>giftboxbydee</t>
@@ -140,14 +87,6 @@
 Kelak kau yg akan menyesal gigit jari, be… https://t.co/xI3PtBTuUn</t>
   </si>
   <si>
-    <t>sincerelybyfaa</t>
-  </si>
-  <si>
-    <t>RT @Esc_4869: Yeay my fav bawal cotton ada PROMO 👀
-I tak suka pakai cotton sebenarnya sampailah I jumpa Andrea Square 😍
-Andrea ni PREMIUM…</t>
-  </si>
-  <si>
     <t>fierrras</t>
   </si>
   <si>
@@ -160,24 +99,6 @@
     <t>@H4nZ83 @magishine_ @jerukkperassss @gojekindonesia @4alif @GojekOnTwitt ada kok mas di grab sama gojek tiap habis… https://t.co/fXnMoFk082</t>
   </si>
   <si>
-    <t>ndyshopdotcom</t>
-  </si>
-  <si>
-    <t>RT @Esc_4869: Ada banyak sangat colour tau 😍
-Kain Premium Cotton ni legit best sangat2 👍🏻
-Order sini tuk dapatkan harga promo rm15
-https:/…</t>
-  </si>
-  <si>
-    <t>casualpantshub</t>
-  </si>
-  <si>
-    <t>danialtsu</t>
-  </si>
-  <si>
-    <t>Harini, @ShopeeMY ada voucher best utk korang jimat bayar bil telco tau! Best giler weih bila tengok bil alwaysssss… https://t.co/x0UY2MpzTV</t>
-  </si>
-  <si>
     <t>ame_lotso</t>
   </si>
   <si>
@@ -196,12 +117,6 @@
     <t>RT @qacehjer: i nak ebegging sedikit wang beli makanan lunch untuk satu kelas 🙏🏼🥺 awak nak deal dengan grab terus pun okay , i bagi address…</t>
   </si>
   <si>
-    <t>yennymana</t>
-  </si>
-  <si>
-    <t>djokomale</t>
-  </si>
-  <si>
     <t>loveyuorseelf</t>
   </si>
   <si>
@@ -214,36 +129,18 @@
     <t>@GrabID Prnah sedih tengah mlm bingung mau ngapain, mau kluar tmen udah pda tidur ada yang masih sibuk kerja juga,… https://t.co/5Af6be0Olo</t>
   </si>
   <si>
-    <t>ndynshopee</t>
-  </si>
-  <si>
     <t>ditanapitupulu</t>
   </si>
   <si>
     <t>kebodohan pagi ini: ga liat plat grab, kena gage. hash moga tidak telat</t>
   </si>
   <si>
-    <t>bymiira__</t>
-  </si>
-  <si>
-    <t>CT_Voter</t>
-  </si>
-  <si>
-    <t>Alhamdulillah, berkat kesabaran. My wait was worth it. At last managed to grab Siti Nurhaliza concert’s ticket. Ter… https://t.co/Ot4fPNxDhn</t>
-  </si>
-  <si>
     <t>shaqibshahril</t>
   </si>
   <si>
     <t>RT @frh_mahmud: Maybe sebab lebih ramai minat buat Grab.</t>
   </si>
   <si>
-    <t>lothfines</t>
-  </si>
-  <si>
-    <t>Selamat pagi Admin, @GrabID . Mohon maaf mengganggu waktunya. Ada keperluan yang ingin saya tanyakan terkait Grab I… https://t.co/9BJfhw5VT8</t>
-  </si>
-  <si>
     <t>hheseeungie</t>
   </si>
   <si>
@@ -268,50 +165,10 @@
     <t>Maybe sebab lebih ramai minat buat Grab. https://t.co/AFfZPnZqUe</t>
   </si>
   <si>
-    <t>sapiens202</t>
-  </si>
-  <si>
-    <t>RT @MArifnordin: Pengangkutan awam malaysia kat mana2 pun dah jahanam tau. Haritu aku tunggu bas ting tong 1jam 30m. Tunggu pun sbb amoi ka…</t>
-  </si>
-  <si>
-    <t>qtpieee</t>
-  </si>
-  <si>
-    <t>misriscarves</t>
-  </si>
-  <si>
-    <t>RT @bysueibrahim_: Sad to announce Gelita &amp;amp; Tumbuh sold out. Tapi warna lain ada lagi no worries! Go grab now bestieq!
-Beli sini dpt free…</t>
-  </si>
-  <si>
-    <t>syzleenanisa</t>
-  </si>
-  <si>
-    <t>buruhMYS</t>
-  </si>
-  <si>
     <t>baleerrr</t>
   </si>
   <si>
     <t>@bdngfess gojek bisa, grab bisa, atau ga maxim juga bisa</t>
-  </si>
-  <si>
-    <t>seorangkapitcn</t>
-  </si>
-  <si>
-    <t>RT @GrabID: 💫GIVEAWAY GRABGIFTS TOTAL 1 JUTA!💫
-Caranya:
-RT tweet ini, lalu kirim DM ke aku “Selamat Ulang Tahun Grab” dan ikutin langkah b…</t>
-  </si>
-  <si>
-    <t>nsfirasy</t>
-  </si>
-  <si>
-    <t>@GrabID Gak kerasa ya udah 10 tahun aku bareng Grab, aku yang dulunya masih smp naik Grab sampai sekarang kuliah pu… https://t.co/wqhLK7xi0U</t>
-  </si>
-  <si>
-    <t>Suara ku emang serak2 basah .....
-Bawakan lahir dari bayi ....</t>
   </si>
   <si>
     <t>dirtydust_</t>
@@ -323,9 +180,6 @@
 -bisnes sendiri</t>
   </si>
   <si>
-    <t>@GrabID aku sering banget naik Grabbike, aku sama abang Grabbike suka banget cerita-cerita saking jauhnya perjalana… https://t.co/JkQByF6wuP</t>
-  </si>
-  <si>
     <t>tuvwannurizzati</t>
   </si>
   <si>
@@ -342,13 +196,6 @@
   </si>
   <si>
     <t>@Song_yuq1 dibalik poto poto kren mreka, mreka cma supir grab kakkk 😭😭😭</t>
-  </si>
-  <si>
-    <t>nad_drah</t>
-  </si>
-  <si>
-    <t>RT @syervw: Yang buntu cari hadiah ke apaa korang boleh grab Milliot &amp;amp; Co punya jam!! Skrg tgh 50% off wehhh😭😭😩
-Sumpahh lawa gila in real…</t>
   </si>
   <si>
     <t>transonlinecom</t>
@@ -358,39 +205,6 @@
 https://t.co/8ZI8QI2vVF</t>
   </si>
   <si>
-    <t>convomfs</t>
-  </si>
-  <si>
-    <t>🤍 tau gak kode promo grab bike / go ride? aku butuh bgt, makasih</t>
-  </si>
-  <si>
-    <t>royalsinjeol</t>
-  </si>
-  <si>
-    <t>RT @universe_publis: [GIVEAWAY]
-All book terbitan Universe Publisher
-Syarat:
-- Like &amp;amp; RT postingan ini
-- Follow akun twitter &amp;amp; ig UP http…</t>
-  </si>
-  <si>
-    <t>RtRyujin</t>
-  </si>
-  <si>
-    <t>RT @na_oo_ya: Jajan layout ready punya Oya! 12k/each, free replace text. Yang mau take bisa langsung dm @na_oo_ya ya ;D grab it fast!
-Avai…</t>
-  </si>
-  <si>
-    <t>miechmya</t>
-  </si>
-  <si>
-    <t>RT @NaufalAntezem: Kenapa harga makanan di Foodpanda/Grab etc lebih mahal ?
-Kerana komisen
-Contoh :
-Sepinggan di kedai RM 10
-Sepinggan d…</t>
-  </si>
-  <si>
     <t>thepastelsshop</t>
   </si>
   <si>
@@ -404,18 +218,6 @@
 Demi kenyamanan bersama dimohon untuk memperhatikan syarat dan ketentuan yang berlaku ⚠️… https://t.co/W7GyBZi4X2</t>
   </si>
   <si>
-    <t>na_oo_ya</t>
-  </si>
-  <si>
-    <t>Jajan layout ready punya Oya! 12k/each, free replace text. Yang mau take bisa langsung dm @na_oo_ya ya ;D grab it f… https://t.co/WtYXVPUd1K</t>
-  </si>
-  <si>
-    <t>@GrabID Terima kasih Grab selalu ada kapan pun dan dimana pun aku berada, abang Grab sama rumah saya sampai kenal b… https://t.co/GWannYAqkZ</t>
-  </si>
-  <si>
-    <t>nightyvibs</t>
-  </si>
-  <si>
     <t>fnjiha_</t>
   </si>
   <si>
@@ -423,12 +225,6 @@
   </si>
   <si>
     <t>@ayymacadamias Yessss dalam grab ni🤣</t>
-  </si>
-  <si>
-    <t>liyanaakmalia</t>
-  </si>
-  <si>
-    <t>@GrabID Terima kasih selama 10 tahunnya, tengah malem laper order Grabfood, pulang-pergi kuliah di anter Grabbike,… https://t.co/fnVGvzIFme</t>
   </si>
   <si>
     <t>Tinggal 4 designs je. Mcm tak percaya kannn ✋😭
@@ -497,12 +293,6 @@
     <t>Pengangkutan awam malaysia kat mana2 pun dah jahanam tau. Haritu aku tunggu bas ting tong 1jam 30m. Tunggu pun sbb… https://t.co/55HI1g3Bs8</t>
   </si>
   <si>
-    <t>nwrsyhmi_</t>
-  </si>
-  <si>
-    <t>nudihascart</t>
-  </si>
-  <si>
     <t>LOLShaika</t>
   </si>
   <si>
@@ -515,10 +305,6 @@
     <t>@afterymitz ga ush ngingetin sarapan kl gmw grab food in.</t>
   </si>
   <si>
-    <t>Banyak kali orang bilang kalau aku nyanyi dengar suaraku mereka jadi sangek ....
-Karna suara ku serak2 basah ....</t>
-  </si>
-  <si>
     <t>sbmptnfess</t>
   </si>
   <si>
@@ -529,9 +315,6 @@
   </si>
   <si>
     <t>Gak paham lagi viki habis nangisin orang baik di atas motor abang grab.</t>
-  </si>
-  <si>
-    <t>@FXZRNX km nyuruh doang kah? ga ada niatan buwat grab food in aku?</t>
   </si>
   <si>
     <t>YoungsterID_</t>
@@ -555,9 +338,6 @@
 Member aku keje grab pon ckp
 Ada customer melayu order bak kut teh ni.
 Bila… https://t.co/HEhAL7jMsJ</t>
-  </si>
-  <si>
-    <t>TXTV0TE</t>
   </si>
 </sst>
 </file>
@@ -616,17 +396,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -924,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,29 +754,13 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -984,25 +770,17 @@
         <v>44764</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1012,10 +790,10 @@
         <v>44764</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1026,10 +804,10 @@
         <v>44764</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1040,10 +818,10 @@
         <v>44764</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1054,10 +832,10 @@
         <v>44764</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1068,39 +846,23 @@
         <v>44764</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1110,10 +872,10 @@
         <v>44764</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1124,10 +886,10 @@
         <v>44764</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1138,25 +900,17 @@
         <v>44764</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1166,10 +920,10 @@
         <v>44764</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,39 +934,23 @@
         <v>44764</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1222,10 +960,10 @@
         <v>44764</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,10 +974,10 @@
         <v>44764</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,10 +988,10 @@
         <v>44764</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,10 +1002,10 @@
         <v>44764</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,10 +1016,10 @@
         <v>44764</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,25 +1030,17 @@
         <v>44764</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1320,25 +1050,17 @@
         <v>44764</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1348,10 +1070,10 @@
         <v>44764</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,10 +1084,10 @@
         <v>44764</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,10 +1098,10 @@
         <v>44764</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,39 +1112,23 @@
         <v>44764</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1432,39 +1138,23 @@
         <v>44764</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1474,10 +1164,10 @@
         <v>44764</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,10 +1178,10 @@
         <v>44764</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,10 +1192,10 @@
         <v>44764</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,25 +1206,17 @@
         <v>44764</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
-      </c>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1544,67 +1226,35 @@
         <v>44764</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>79</v>
-      </c>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>79</v>
-      </c>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -1614,10 +1264,10 @@
         <v>44764</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1628,25 +1278,17 @@
         <v>44764</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1656,10 +1298,10 @@
         <v>44764</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,10 +1312,10 @@
         <v>44764</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1684,10 +1326,10 @@
         <v>44764</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,10 +1340,10 @@
         <v>44764</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,10 +1354,10 @@
         <v>44764</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1726,10 +1368,10 @@
         <v>44764</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1740,10 +1382,10 @@
         <v>44764</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1754,10 +1396,10 @@
         <v>44764</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,10 +1410,10 @@
         <v>44764</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1782,10 +1424,10 @@
         <v>44764</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1796,10 +1438,10 @@
         <v>44764</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1810,10 +1452,10 @@
         <v>44764</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,10 +1466,10 @@
         <v>44764</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1838,10 +1480,10 @@
         <v>44764</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1852,10 +1494,10 @@
         <v>44764</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1866,10 +1508,10 @@
         <v>44764</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1880,10 +1522,10 @@
         <v>44764</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1894,10 +1536,10 @@
         <v>44764</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1908,447 +1550,22 @@
         <v>44764</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C75" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C77" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C79" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C81" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C82" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C83" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C84" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C85" t="s">
-        <v>140</v>
-      </c>
-      <c r="D85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C86" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C90" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C93" t="s">
-        <v>153</v>
-      </c>
-      <c r="D93" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C95" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C96" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C97" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C98" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C99" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C100" t="s">
-        <v>160</v>
-      </c>
-      <c r="D100" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C101" t="s">
-        <v>162</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
-      </c>
+      <c r="A71" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D71">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C71">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>